--- a/Script for execution/Regression/Regression/Default.xlsx
+++ b/Script for execution/Regression/Regression/Default.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="Action1" sheetId="2" r:id="rId2"/>
+    <sheet name="Good_small_than_2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
